--- a/public/admin/FHRMS_Formate.xlsx
+++ b/public/admin/FHRMS_Formate.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,186 +28,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
-  <si>
-    <t>ffi_emp_id</t>
-  </si>
-  <si>
-    <t>emp_name</t>
-  </si>
-  <si>
-    <t>interview_date</t>
-  </si>
-  <si>
-    <t>joining_date</t>
-  </si>
-  <si>
-    <t>contract_date</t>
-  </si>
-  <si>
-    <t>designation</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>father_name</t>
-  </si>
-  <si>
-    <t>blood_group</t>
-  </si>
-  <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t>phone1</t>
-  </si>
-  <si>
-    <t>phone2</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>permanent_address</t>
-  </si>
-  <si>
-    <t>present_address</t>
-  </si>
-  <si>
-    <t>pan_no</t>
-  </si>
-  <si>
-    <t>pan_path</t>
-  </si>
-  <si>
-    <t>aadhar_no</t>
-  </si>
-  <si>
-    <t>aadhar_path</t>
-  </si>
-  <si>
-    <t>driving_license_no</t>
-  </si>
-  <si>
-    <t>driving_license_path</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>resume</t>
-  </si>
-  <si>
-    <t>bank_name</t>
-  </si>
-  <si>
-    <t>bank_document</t>
-  </si>
-  <si>
-    <t>bank_account_no</t>
-  </si>
-  <si>
-    <t>bank_ifsc_code</t>
-  </si>
-  <si>
-    <t>uan_generatted</t>
-  </si>
-  <si>
-    <t>uan_type</t>
-  </si>
-  <si>
-    <t>uan_no</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>basic_salary</t>
-  </si>
-  <si>
-    <t>hra</t>
-  </si>
-  <si>
-    <t>conveyance</t>
-  </si>
-  <si>
-    <t>medical_reimbursement</t>
-  </si>
-  <si>
-    <t>special_allowance</t>
-  </si>
-  <si>
-    <t>st_bonus</t>
-  </si>
-  <si>
-    <t>other_allowance</t>
-  </si>
-  <si>
-    <t>gross_salary</t>
-  </si>
-  <si>
-    <t>emp_pf</t>
-  </si>
-  <si>
-    <t>emp_esic</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>total_deduction</t>
-  </si>
-  <si>
-    <t>take_home</t>
-  </si>
-  <si>
-    <t>employer_pf</t>
-  </si>
-  <si>
-    <t>employer_esic</t>
-  </si>
-  <si>
-    <t>mediclaim</t>
-  </si>
-  <si>
-    <t>ctc</t>
-  </si>
-  <si>
-    <t>voter_id</t>
-  </si>
-  <si>
-    <t>emp_form</t>
-  </si>
-  <si>
-    <t>Education Certificate:</t>
-  </si>
-  <si>
-    <t>pf_esic_form</t>
-  </si>
-  <si>
-    <t>Others:</t>
-  </si>
-  <si>
-    <t>payslip</t>
-  </si>
-  <si>
-    <t>exp_letter</t>
-  </si>
-  <si>
-    <t>password</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
+  <si>
+    <t>FFI_Emp_ID</t>
+  </si>
+  <si>
+    <t>Emp_Name</t>
+  </si>
+  <si>
+    <t>Interview_Date</t>
+  </si>
+  <si>
+    <t>Joining_Date</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Date_of_Birth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Father_Name</t>
+  </si>
+  <si>
+    <t>Blood_Group</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>Phone_No</t>
+  </si>
+  <si>
+    <t>Phone_No2</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Permanent_Address</t>
+  </si>
+  <si>
+    <t>Present_Address</t>
+  </si>
+  <si>
+    <t>PAN_No</t>
+  </si>
+  <si>
+    <t>Aadhar_No</t>
+  </si>
+  <si>
+    <t>Driving_License_No</t>
+  </si>
+  <si>
+    <t>Bank_Name</t>
+  </si>
+  <si>
+    <t>Bank_Account_No</t>
+  </si>
+  <si>
+    <t>Bank_IFSC_Code</t>
+  </si>
+  <si>
+    <t>UAN_No</t>
+  </si>
+  <si>
+    <t>Basic_Salary</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>Conveyance</t>
+  </si>
+  <si>
+    <t>Medical_Reimbursement</t>
+  </si>
+  <si>
+    <t>Special_Allowance</t>
+  </si>
+  <si>
+    <t>ST_Bonus</t>
+  </si>
+  <si>
+    <t>Other_Allowance</t>
+  </si>
+  <si>
+    <t>Gross_Salary</t>
+  </si>
+  <si>
+    <t>Emp_PF</t>
+  </si>
+  <si>
+    <t>Emp_ESIC</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Total_Deduction</t>
+  </si>
+  <si>
+    <t>Take_Home</t>
+  </si>
+  <si>
+    <t>Employer_PF</t>
+  </si>
+  <si>
+    <t>Employer_ESIC</t>
+  </si>
+  <si>
+    <t>Mediclaim</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
   <si>
     <t>111-ffi</t>
@@ -221,12 +171,12 @@
     <t>16-1-2025</t>
   </si>
   <si>
-    <t>16-12-2025</t>
-  </si>
-  <si>
     <t>sample formate</t>
   </si>
   <si>
+    <t>ARUNACHAL PRADESH</t>
+  </si>
+  <si>
     <t>banglore</t>
   </si>
   <si>
@@ -236,47 +186,208 @@
     <t>Male</t>
   </si>
   <si>
+    <t>O-</t>
+  </si>
+  <si>
+    <t>mba</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>bkcjicbeb</t>
+  </si>
+  <si>
+    <t>hyubou</t>
+  </si>
+  <si>
+    <t>982389296458</t>
+  </si>
+  <si>
+    <t>98dn wu9</t>
+  </si>
+  <si>
+    <t>ffemp@123</t>
+  </si>
+  <si>
+    <t>STATES</t>
+  </si>
+  <si>
+    <t>STATES ID</t>
+  </si>
+  <si>
+    <t>ANDAMAN &amp; NICOBAR</t>
+  </si>
+  <si>
+    <t>ANDHRA PRADESH</t>
+  </si>
+  <si>
+    <t>ASSAM</t>
+  </si>
+  <si>
+    <t>BIHAR</t>
+  </si>
+  <si>
+    <t>CHANDIGARH</t>
+  </si>
+  <si>
+    <t>CHATTISGARH</t>
+  </si>
+  <si>
+    <t>DADRA &amp; NAGAR</t>
+  </si>
+  <si>
+    <t>DAMAN &amp; DIU</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>GOA</t>
+  </si>
+  <si>
+    <t>BLOOD GROUP</t>
+  </si>
+  <si>
+    <t>GUJRAT</t>
+  </si>
+  <si>
     <t>O+</t>
   </si>
   <si>
-    <t>mba</t>
-  </si>
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>bkcjicbeb</t>
-  </si>
-  <si>
-    <t>hyubou</t>
-  </si>
-  <si>
-    <t>982389296458</t>
-  </si>
-  <si>
-    <t>98dn wu9</t>
-  </si>
-  <si>
-    <t>Password</t>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>GENDER VALUE</t>
+  </si>
+  <si>
+    <t>HARYANA</t>
+  </si>
+  <si>
+    <t>HIMACHAL PRADESH</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>JAMMU &amp; KASHMIR</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>JHARKHAND</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>KARNATAKA</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>KERALA</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
+    <t>LAKSHDWEEP</t>
+  </si>
+  <si>
+    <t>AB-</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>MANIPUR</t>
+  </si>
+  <si>
+    <t>MEGHALAYA</t>
+  </si>
+  <si>
+    <t>MIZORAM</t>
+  </si>
+  <si>
+    <t>NAGALAND</t>
+  </si>
+  <si>
+    <t>ORISSA</t>
+  </si>
+  <si>
+    <t>PONDICHERY</t>
+  </si>
+  <si>
+    <t>PUNJAB</t>
+  </si>
+  <si>
+    <t>RAJASTHAN</t>
+  </si>
+  <si>
+    <t>SIKKIM</t>
+  </si>
+  <si>
+    <t>TAMIL NADU</t>
+  </si>
+  <si>
+    <t>TELANGANA</t>
+  </si>
+  <si>
+    <t>TRIPURA</t>
+  </si>
+  <si>
+    <t>UTTAR PRADESH</t>
+  </si>
+  <si>
+    <t>UTTARAKHAND</t>
+  </si>
+  <si>
+    <t>WEST BENGAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -757,143 +868,155 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1432,371 +1555,660 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BH2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="26.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="27.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="30.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="37.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="26.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="22.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="22.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="20.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="21.7777777777778" customWidth="1"/>
-    <col min="14" max="14" width="19.5555555555556" customWidth="1"/>
-    <col min="15" max="15" width="16.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="19.3333333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.1111111111111" customWidth="1"/>
-    <col min="18" max="18" width="28.6666666666667" customWidth="1"/>
-    <col min="19" max="19" width="23.4444444444444" customWidth="1"/>
-    <col min="20" max="20" width="21.4444444444444" customWidth="1"/>
-    <col min="21" max="21" width="14.3333333333333" customWidth="1"/>
-    <col min="22" max="22" width="23.1111111111111" customWidth="1"/>
-    <col min="23" max="23" width="23.5555555555556" customWidth="1"/>
-    <col min="24" max="24" width="26.4444444444444" customWidth="1"/>
-    <col min="25" max="25" width="25.2222222222222" customWidth="1"/>
-    <col min="26" max="26" width="16.8888888888889" customWidth="1"/>
-    <col min="27" max="27" width="18.2222222222222" customWidth="1"/>
-    <col min="28" max="28" width="18.6666666666667" customWidth="1"/>
-    <col min="29" max="29" width="24.6666666666667" customWidth="1"/>
-    <col min="30" max="30" width="22.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="26.3333333333333" customWidth="1"/>
-    <col min="32" max="32" width="23.8888888888889" customWidth="1"/>
-    <col min="33" max="33" width="16.6666666666667" customWidth="1"/>
-    <col min="34" max="34" width="13.3333333333333" customWidth="1"/>
-    <col min="36" max="36" width="14" customWidth="1"/>
-    <col min="38" max="38" width="16.3333333333333" customWidth="1"/>
-    <col min="39" max="39" width="25.1111111111111" customWidth="1"/>
-    <col min="40" max="40" width="22.6666666666667" customWidth="1"/>
-    <col min="42" max="42" width="19.5555555555556" customWidth="1"/>
-    <col min="43" max="43" width="15.4444444444444" customWidth="1"/>
-    <col min="44" max="44" width="19.3333333333333" customWidth="1"/>
-    <col min="45" max="45" width="18.5555555555556" customWidth="1"/>
-    <col min="47" max="47" width="23.6666666666667" customWidth="1"/>
-    <col min="48" max="48" width="19.3333333333333" customWidth="1"/>
-    <col min="49" max="49" width="18.5555555555556" customWidth="1"/>
-    <col min="50" max="50" width="24.1111111111111" customWidth="1"/>
-    <col min="51" max="51" width="25.2222222222222" customWidth="1"/>
-    <col min="52" max="52" width="10.2222222222222" customWidth="1"/>
-    <col min="53" max="53" width="18.7777777777778" customWidth="1"/>
-    <col min="54" max="54" width="25.3333333333333" customWidth="1"/>
-    <col min="55" max="55" width="21.8888888888889" customWidth="1"/>
-    <col min="56" max="56" width="16.4444444444444" customWidth="1"/>
-    <col min="57" max="57" width="10.4444444444444" customWidth="1"/>
-    <col min="58" max="58" width="14.8888888888889" customWidth="1"/>
-    <col min="59" max="59" width="16.4444444444444" customWidth="1"/>
-    <col min="60" max="60" width="18" customWidth="1"/>
+    <col min="1" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="4" width="33.1111111111111" style="4" customWidth="1"/>
+    <col min="5" max="8" width="33.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="33.1111111111111" style="4" customWidth="1"/>
+    <col min="10" max="43" width="33.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:60">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:43">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="1" spans="1:43">
+      <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="M2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="N2">
+        <v>1234567890</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="Q2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="R2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="T2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="X2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="Z2">
+        <v>78958</v>
+      </c>
+      <c r="AA2">
+        <v>585</v>
+      </c>
+      <c r="AB2">
+        <v>565855</v>
+      </c>
+      <c r="AC2">
+        <v>655855</v>
+      </c>
+      <c r="AD2">
+        <v>6555</v>
+      </c>
+      <c r="AE2">
+        <v>6665</v>
+      </c>
+      <c r="AF2">
+        <v>65555</v>
+      </c>
+      <c r="AG2">
+        <v>66555</v>
+      </c>
+      <c r="AH2">
+        <v>655555</v>
+      </c>
+      <c r="AI2">
+        <v>6555</v>
+      </c>
+      <c r="AJ2">
+        <v>6654</v>
+      </c>
+      <c r="AK2">
+        <v>6656554</v>
+      </c>
+      <c r="AL2">
+        <v>355266952</v>
+      </c>
+      <c r="AM2">
+        <v>252</v>
+      </c>
+      <c r="AN2">
+        <v>35223</v>
+      </c>
+      <c r="AO2">
+        <v>25223</v>
+      </c>
+      <c r="AP2">
+        <v>352</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:60">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2">
-        <v>1234567890</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>78958</v>
-      </c>
-      <c r="AK2">
-        <v>585</v>
-      </c>
-      <c r="AL2">
-        <v>565855</v>
-      </c>
-      <c r="AM2">
-        <v>655855</v>
-      </c>
-      <c r="AN2">
-        <v>6555</v>
-      </c>
-      <c r="AO2">
-        <v>6665</v>
-      </c>
-      <c r="AP2">
-        <v>65555</v>
-      </c>
-      <c r="AQ2">
-        <v>66555</v>
-      </c>
-      <c r="AR2">
-        <v>655555</v>
-      </c>
-      <c r="AS2">
-        <v>6555</v>
-      </c>
-      <c r="AT2">
-        <v>6654</v>
-      </c>
-      <c r="AU2">
-        <v>6656554</v>
-      </c>
-      <c r="AV2">
-        <v>355266952</v>
-      </c>
-      <c r="AW2">
-        <v>252</v>
-      </c>
-      <c r="AX2">
-        <v>35223</v>
-      </c>
-      <c r="AY2">
-        <v>25223</v>
-      </c>
-      <c r="AZ2">
-        <v>352</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>Sheet2!$D$3:$D$39</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>Sheet2!$I$15:$I$22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
+      <formula1>Sheet2!$N$16:$N$18</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="abc@gmail.com"/>
+    <hyperlink ref="P2" r:id="rId1" display="abc@gmail.com"/>
+    <hyperlink ref="AQ2" r:id="rId2" display="ffemp@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D2:O39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="4:5">
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5">
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5">
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9">
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15">
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15">
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15">
+      <c r="D17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15">
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9">
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2">
+        <v>33</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9">
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9">
+      <c r="D21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9">
+      <c r="D22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="2">
+        <v>27</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="2">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>